--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccalurie 1/Dropbox/grad/df/df_recallonly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44AA1E1-3CC6-B341-89E4-38A92A6A4BA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9A59AE-A6E4-E247-A69E-C55A91D0CB11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{001497AD-678E-754F-A903-1297D2EA1ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>concept</t>
   </si>
@@ -225,13 +234,100 @@
     <t>grapes1.jpg</t>
   </si>
   <si>
-    <t>ins</t>
-  </si>
-  <si>
-    <t>You will be viewing an assortment of artwork. Press the spacebar when you are ready to move on to the next piece.</t>
-  </si>
-  <si>
-    <t>You will be viewing an assortment of artwork. For each piece of art, please take a photo. Press the spacebar when you are ready to move on to the next piece.</t>
+    <t>87 x 7 =</t>
+  </si>
+  <si>
+    <t>17 x 87 =</t>
+  </si>
+  <si>
+    <t>77 x 21 =</t>
+  </si>
+  <si>
+    <t>25 x 17 =</t>
+  </si>
+  <si>
+    <t>49 x 43 =</t>
+  </si>
+  <si>
+    <t>68 x 47 =</t>
+  </si>
+  <si>
+    <t>11 x 83 =</t>
+  </si>
+  <si>
+    <t>51 x 65 =</t>
+  </si>
+  <si>
+    <t>84 x 54 =</t>
+  </si>
+  <si>
+    <t>14 x 38 =</t>
+  </si>
+  <si>
+    <t>9 x 54 =</t>
+  </si>
+  <si>
+    <t>80 x 11 =</t>
+  </si>
+  <si>
+    <t>18 x 61 =</t>
+  </si>
+  <si>
+    <t>18 x 74 =</t>
+  </si>
+  <si>
+    <t>9 x 22 =</t>
+  </si>
+  <si>
+    <t>94 x 64 =</t>
+  </si>
+  <si>
+    <t>74 x 57 =</t>
+  </si>
+  <si>
+    <t>63 x 58 =</t>
+  </si>
+  <si>
+    <t>86 x 12 =</t>
+  </si>
+  <si>
+    <t>44 x 75 =</t>
+  </si>
+  <si>
+    <t>5 x 57 =</t>
+  </si>
+  <si>
+    <t>82 x 31 =</t>
+  </si>
+  <si>
+    <t>25 x 88 =</t>
+  </si>
+  <si>
+    <t>44 x 84 =</t>
+  </si>
+  <si>
+    <t>26 x 23 =</t>
+  </si>
+  <si>
+    <t>13 x 47 =</t>
+  </si>
+  <si>
+    <t>44 x 4 =</t>
+  </si>
+  <si>
+    <t>47 x 24 =</t>
+  </si>
+  <si>
+    <t>37 x 63 =</t>
+  </si>
+  <si>
+    <t>distractQ</t>
+  </si>
+  <si>
+    <t>16 x 12 =</t>
+  </si>
+  <si>
+    <t>96 x 22 =</t>
   </si>
 </sst>
 </file>
@@ -586,7 +682,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -614,7 +710,7 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -635,6 +731,9 @@
       <c r="B4" t="s">
         <v>36</v>
       </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -643,6 +742,9 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -651,6 +753,9 @@
       <c r="B6" t="s">
         <v>38</v>
       </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -659,6 +764,9 @@
       <c r="B7" t="s">
         <v>39</v>
       </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -667,6 +775,9 @@
       <c r="B8" t="s">
         <v>40</v>
       </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -675,6 +786,9 @@
       <c r="B9" t="s">
         <v>41</v>
       </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -683,6 +797,9 @@
       <c r="B10" t="s">
         <v>42</v>
       </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -691,6 +808,9 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -699,6 +819,9 @@
       <c r="B12" t="s">
         <v>44</v>
       </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -707,6 +830,9 @@
       <c r="B13" t="s">
         <v>45</v>
       </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -715,6 +841,9 @@
       <c r="B14" t="s">
         <v>46</v>
       </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -723,6 +852,9 @@
       <c r="B15" t="s">
         <v>47</v>
       </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -731,141 +863,195 @@
       <c r="B16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
